--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -810,10 +810,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-loco-41-2234:If (63.04-.03) is is not NULL and 63.07-10 is not available then fixed value #completed {true}loco-41-2235:If (63.04-.03) is is NULL and 63.07-10 is not available then fixed value #preliminary {true}</t>
-  </si>
-  <si>
-    <t>2235: fixed value = #preliminary when CHEM, HEM, TOX, RIA, SER, etc. - ORDERED TEST (63.04-.03) if is NULL and 63.07-10 is not available</t>
+loco-41-860:If not NULL then terminologyMaps (63.04-.35 &gt; 63.07-10) using VF_LabObservationStatus {true}loco-41-2234:If (63.04-.03) is not NULL and 63.07-10 is not available then fixed value #completed {true}loco-41-2235:If (63.04-.03) is NULL and 63.07-10 is not available then fixed value #preliminary {true}</t>
+  </si>
+  <si>
+    <t>2235: fixed value = #preliminary when CHEM, HEM, TOX, RIA, SER, etc. - ORDERED TEST (63.04-.03) if NULL and 63.07-10 is not available</t>
   </si>
   <si>
     <t>Chem.LabChem.LabChemCompleteDateTime,Chem.LabPanel.LabChemCompleteDateTime,Chem.OrderedLabPanel.LabChemCompleteDateTime,Chem.PatientLabChem.LabChemCompleteDateTime</t>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -816,13 +816,23 @@
     <t>2235: fixed value = #preliminary when CHEM, HEM, TOX, RIA, SER, etc. - ORDERED TEST (63.04-.03) if NULL and 63.07-10 is not available</t>
   </si>
   <si>
-    <t>Chem.LabChem.LabChemCompleteDateTime,Chem.LabPanel.LabChemCompleteDateTime,Chem.OrderedLabPanel.LabChemCompleteDateTime,Chem.PatientLabChem.LabChemCompleteDateTime</t>
-  </si>
-  <si>
-    <t>LabOrder.Result.ResultStatus,LabOrder.Result.ResultTime,LabOrder.ResultItem[LabResultItem].TestItemStatus</t>
-  </si>
-  <si>
-    <t>panel.resulted,panel.status,accession.resulted,accession.status,lab.resulted,lab.status</t>
+    <t>Chem.LabChem.LabChemCompleteDateTime
+Chem.LabPanel.LabChemCompleteDateTime
+Chem.OrderedLabPanel.LabChemCompleteDateTime
+Chem.PatientLabChem.LabChemCompleteDateTime</t>
+  </si>
+  <si>
+    <t>LabOrder.Result.ResultStatus
+LabOrder.Result.ResultTime
+LabOrder.ResultItem[LabResultItem].TestItemStatus</t>
+  </si>
+  <si>
+    <t>panel.resulted
+panel.status
+accession.resulted
+accession.status
+lab.resulted
+lab.status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1147,7 +1157,25 @@
     <t>844: reference based on PATIENT - LABORATORY REFERENCE &gt; LAB DATA - LRDFN (2-63 &gt; 63-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.LRDFN,Micro.AntibioticSensitivityComment.LRDFN,Micro.BacteriologyReports.LRDFN,Micro.MicroAntibioticLevel.LRDFN,Micro.MicroAudit.LRDFN,Micro.Microbiology.LRDFN,Micro.MicroOrderedTest.LRDFN,Micro.MicroSterilityResults.LRDFN,Micro.MycobacteriologyReports.LRDFN,Micro.Mycology.LRDFN,Micro.MycologyReports.LRDFN,Micro.Parasitology.LRDFN,Micro.ParasitologyReports.LRDFN,Micro.ParasitologyStage.LRDFN,Micro.Virology.LRDFN,Micro.VirologyReports.LRDFN,Pathology.Autopsy.LRDFN,Pathology.CytoOrganTissueFunction.StaffIEN,SStaff.SMicroOrderedTest.LRDFN</t>
+    <t>Micro.AntibioticSensitivity.LRDFN
+Micro.AntibioticSensitivityComment.LRDFN
+Micro.BacteriologyReports.LRDFN
+Micro.MicroAntibioticLevel.LRDFN
+Micro.MicroAudit.LRDFN
+Micro.Microbiology.LRDFN
+Micro.MicroOrderedTest.LRDFN
+Micro.MicroSterilityResults.LRDFN
+Micro.MycobacteriologyReports.LRDFN
+Micro.Mycology.LRDFN
+Micro.MycologyReports.LRDFN
+Micro.Parasitology.LRDFN
+Micro.ParasitologyReports.LRDFN
+Micro.ParasitologyStage.LRDFN
+Micro.Virology.LRDFN
+Micro.VirologyReports.LRDFN
+Pathology.Autopsy.LRDFN
+Pathology.CytoOrganTissueFunction.StaffIEN
+SStaff.SMicroOrderedTest.LRDFN</t>
   </si>
   <si>
     <t>Patient.Extension[PatientExtension].VeteranLrdfn</t>
@@ -1282,13 +1310,20 @@
     <t>845: source value based on CHEM, HEM, TOX, RIA, SER, etc. - DATE/TIME SPECIMEN TAKEN (63.04-.01)</t>
   </si>
   <si>
-    <t>Chem.LabChem.LabChemSpecimenDateTime,Chem.LabPanel.LabChemSpecimenDateTime,Chem.OrderedLabPanel.LabChemSpecimenDateTime,Chem.PatientLabChem.LabChemSpecimenDateTime</t>
-  </si>
-  <si>
-    <t>LabOrder.TestItemCode[LabTestItem].Description,LabOrder.PerformedAt[Organization].Description</t>
-  </si>
-  <si>
-    <t>panel.collected,accession.collected,accession.test,lab.collected</t>
+    <t>Chem.LabChem.LabChemSpecimenDateTime
+Chem.LabPanel.LabChemSpecimenDateTime
+Chem.OrderedLabPanel.LabChemSpecimenDateTime
+Chem.PatientLabChem.LabChemSpecimenDateTime</t>
+  </si>
+  <si>
+    <t>LabOrder.TestItemCode[LabTestItem].Description
+LabOrder.PerformedAt[Organization].Description</t>
+  </si>
+  <si>
+    <t>panel.collected
+accession.collected
+accession.test
+lab.collected</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -1364,13 +1399,19 @@
     <t>847: reference based on CHEM, HEM, TOX, RIA, SER, etc. - ACCESSIONING INSTITUTION (63.04-.112)</t>
   </si>
   <si>
-    <t>Chem.LabChem.AccessionInstitutionIEN,Chem.PatientLabChem.AccessionInstitutionIEN</t>
+    <t>Chem.LabChem.AccessionInstitutionIEN
+Chem.PatientLabChem.AccessionInstitutionIEN</t>
   </si>
   <si>
     <t>LabOrder.Result.EnteredAt</t>
   </si>
   <si>
-    <t>panel.facility (&gt;4-.01),panel.facility (&gt;4-99),accession.facility (&gt;4-.01),accession.facility (&gt;4-99),lab.facility (&gt;4-.01),lab.facility (&gt;4-99)</t>
+    <t>panel.facility (&gt;4-.01)
+panel.facility (&gt;4-99)
+accession.facility (&gt;4-.01)
+accession.facility (&gt;4-99)
+lab.facility (&gt;4-.01)
+lab.facility (&gt;4-99)</t>
   </si>
   <si>
     <t>Observation.performer:va-by</t>
@@ -1690,7 +1731,9 @@
     <t>LabOrder.Result.Comments</t>
   </si>
   <si>
-    <t>panel.comment,accession.comment,lab.comment</t>
+    <t>panel.comment
+accession.comment
+lab.comment</t>
   </si>
   <si>
     <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
@@ -1779,13 +1822,17 @@
     <t>1656: reference based on CHEM, HEM, TOX, RIA, SER, etc. - ACCESSION (63.04-.06)</t>
   </si>
   <si>
-    <t>Chem.LabChem.ShortAccessionNumber,Chem.PatientLabChem.ShortAccessionNumber</t>
+    <t>Chem.LabChem.ShortAccessionNumber
+Chem.PatientLabChem.ShortAccessionNumber</t>
   </si>
   <si>
     <t>LabOrder.Extension[ResultExtension].GroupName</t>
   </si>
   <si>
-    <t>panel.groupName,accession.groupName,accession.name (&gt;68-.01),lab.groupName</t>
+    <t>panel.groupName
+accession.groupName
+accession.name (&gt;68-.01)
+lab.groupName</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -2511,9 +2558,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="219.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="88.51953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.87109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
+++ b/docs/StructureDefinition-LabObservationChemhemtoxriaserObservation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
